--- a/cam/Uno_v1.0_2021-04-14-PnP.xlsx
+++ b/cam/Uno_v1.0_2021-04-14-PnP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\Uno\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175812AA-47AF-448C-B71D-7E9183E04122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF2D6D-6DF7-43A8-A697-0235D57D22EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18610" yWindow="440" windowWidth="16430" windowHeight="19950" activeTab="1" xr2:uid="{6214E136-4928-45E8-9FCC-44A292EA630F}"/>
+    <workbookView xWindow="23870" yWindow="820" windowWidth="16430" windowHeight="19950" activeTab="1" xr2:uid="{6214E136-4928-45E8-9FCC-44A292EA630F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,7 +1055,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1072,7 +1072,7 @@
         <v>58</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1514,7 +1514,7 @@
         <v>58</v>
       </c>
       <c r="E52">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1548,7 +1548,7 @@
         <v>58</v>
       </c>
       <c r="E54">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
